--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -70,6 +70,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1878,16 +1881,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="6" t="n">
         <v>19863.23</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="6" t="n">
         <v>19039.07</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="6" t="n">
         <v>25470.65</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>12134.62</v>
       </c>
     </row>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1589,7 +1589,7 @@
         <v>11287.86</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>374.67</v>
       </c>
     </row>
     <row r="7">
@@ -1891,7 +1891,7 @@
         <v>25470.65</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12134.62</v>
+        <v>12509.29</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1589,7 +1589,7 @@
         <v>11287.86</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>374.67</v>
+        <v>2867.6</v>
       </c>
     </row>
     <row r="7">
@@ -1891,7 +1891,7 @@
         <v>25470.65</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12509.29</v>
+        <v>15002.22</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1637,7 +1637,7 @@
         <v>1183.91</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>2785.1</v>
       </c>
     </row>
     <row r="9">
@@ -1891,7 +1891,7 @@
         <v>25470.65</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15002.22</v>
+        <v>17787.32</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
+        <v>-49.25</v>
       </c>
     </row>
     <row r="3">
@@ -1891,7 +1891,7 @@
         <v>25470.65</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17787.32</v>
+        <v>17738.07</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>40.19</v>
       </c>
     </row>
     <row r="15">
@@ -1891,7 +1891,7 @@
         <v>25470.65</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17738.07</v>
+        <v>17778.26</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1877,7 +1877,7 @@
         <v>7441.92</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8696.879999999999</v>
+        <v>8859.700000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1891,7 +1891,7 @@
         <v>25470.65</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17778.26</v>
+        <v>17941.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1437,7 +1437,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1877,7 +1877,7 @@
         <v>7441.92</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8859.700000000001</v>
+        <v>24096.93</v>
       </c>
     </row>
     <row r="19">
@@ -1891,7 +1891,7 @@
         <v>25470.65</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17941.08</v>
+        <v>33178.31</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>4277.03</v>
       </c>
     </row>
     <row r="16">
@@ -1891,7 +1891,7 @@
         <v>25470.65</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33178.31</v>
+        <v>37455.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0</v>
+        <v>-49.25</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>1451.52</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>208.35</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>166.32</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>11287.86</v>
+        <v>2492.93</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1183.91</v>
+        <v>2785.1</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>5556.96</v>
+        <v>156.67</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>30.61</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>4277.03</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>7441.92</v>
+        <v>10277.38</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>13819.55</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1364,42 +1364,42 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
+          <t>1 de 17</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>1 de 17</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>3 de 17</t>
+          <t>8 de 17</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>-49.25</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1451.52</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>208.35</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>166.32</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2492.93</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2785.1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>156.67</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>30.61</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>4277.03</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>10277.38</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>13819.55</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0</v>
@@ -1359,17 +1359,17 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>8 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
@@ -1435,9 +1435,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1453,22 +1453,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>febrero</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
     </row>
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>-49.25</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-49.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>3054.27</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3054.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1556,16 +1556,16 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3687.82</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1580,16 +1580,16 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-289.82</v>
+        <v>1728.53</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1728.53</v>
+        <v>11287.86</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>11287.86</v>
+        <v>2867.6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2867.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1628,16 +1628,16 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>939.59</v>
+        <v>-266.91</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-266.91</v>
+        <v>1183.91</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1183.91</v>
+        <v>2785.1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2785.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-244.14</v>
+        <v>4896.51</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4896.51</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -1676,16 +1676,16 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4883.76</v>
+        <v>8752.889999999999</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>8752.889999999999</v>
+        <v>5556.96</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5556.96</v>
+        <v>156.67</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>156.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1297.61</v>
+        <v>648.8099999999999</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>648.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>40.19</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>40.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1796,16 +1796,16 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>3216.09</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>4277.03</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4277.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>320.39</v>
+        <v>126.72</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>126.72</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -1868,30 +1868,30 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>6051.93</v>
+        <v>3152.52</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3152.52</v>
+        <v>7441.92</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>7441.92</v>
+        <v>24096.93</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>24096.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="6" t="n">
-        <v>19863.23</v>
+        <v>19039.07</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19039.07</v>
+        <v>25470.65</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25470.65</v>
+        <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>37455.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1424,7 +1424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,6 +1438,7 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1471,6 +1472,11 @@
           <t>junio</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1495,6 +1501,9 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1519,6 +1528,9 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1543,6 +1555,9 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1567,6 +1582,9 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1591,6 +1609,9 @@
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1615,6 +1636,9 @@
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1639,6 +1663,9 @@
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1663,6 +1690,9 @@
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1687,6 +1717,9 @@
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1711,6 +1744,9 @@
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1735,6 +1771,9 @@
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1759,6 +1798,9 @@
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1783,6 +1825,9 @@
       <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1807,6 +1852,9 @@
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1831,6 +1879,9 @@
       <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1855,6 +1906,9 @@
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1877,6 +1931,9 @@
         <v>24096.93</v>
       </c>
       <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1891,6 +1948,9 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1424,7 +1424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,7 +1438,6 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1472,11 +1471,6 @@
           <t>junio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRESUPUESTO</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1501,9 +1495,6 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1528,9 +1519,6 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1555,9 +1543,6 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1582,9 +1567,6 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1609,9 +1591,6 @@
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1636,9 +1615,6 @@
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1663,9 +1639,6 @@
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1690,9 +1663,6 @@
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1717,9 +1687,6 @@
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1744,9 +1711,6 @@
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1771,9 +1735,6 @@
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1798,9 +1759,6 @@
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1825,9 +1783,6 @@
       <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1852,9 +1807,6 @@
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1879,9 +1831,6 @@
       <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1906,9 +1855,6 @@
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1931,9 +1877,6 @@
         <v>24096.93</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1948,9 +1891,6 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0</v>
+        <v>-22.68</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1661,7 +1661,7 @@
         <v>2785.1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>-22.68</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0</v>
+        <v>-22.68</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VENTA MENSUAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CUMPLIMIENTO MENSUAL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -72,6 +73,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1957,4 +1961,490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASESOR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POR CUMPLIR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CUMPLIMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240X120 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1041.16</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1041.16</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240X80 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>8668.91</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>8668.91</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FREGADEROS DE COCINA</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>372.993863046034</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>372.993863046034</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GRIFERIAS</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INODOROS</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAVABOS</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>625</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>650.25</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>650.25</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PANELES DECORATIVOS</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PIEDRA SINTERIZADA</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2501.01</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>2501.01</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>28209.84</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-22.68</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>28232.52</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>-0.0008039747832671153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PUERTAS DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>47219.30386304604</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>-22.68</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>47241.98386304604</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>-0.0004803120364878872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>117.94</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>0 de 17</t>
+          <t>1 de 17</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
@@ -1611,7 +1611,7 @@
         <v>2867.6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>117.94</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-22.68</v>
+        <v>95.25999999999999</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -1980,9 +1980,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2368,13 +2368,13 @@
         <v>28209.84</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-22.68</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>28232.52</v>
+        <v>28114.58</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-0.0008039747832671153</v>
+        <v>0.003376835884216288</v>
       </c>
     </row>
     <row r="17">
@@ -2435,13 +2435,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-22.68</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>47241.98386304604</v>
+        <v>47124.04386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-0.0004803120364878872</v>
+        <v>0.002017395264366673</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>1267.19</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>0 de 17</t>
+          <t>1 de 17</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -1441,7 +1441,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1854,7 +1854,7 @@
         <v>4277.03</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>1267.19</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>95.25999999999999</v>
+        <v>1362.45</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -1980,8 +1980,8 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -2056,13 +2056,13 @@
         <v>8668.91</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>1267.19</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8668.91</v>
+        <v>7401.719999999999</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>0.1461763935719716</v>
       </c>
     </row>
     <row r="4">
@@ -2435,13 +2435,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>95.26000000000001</v>
+        <v>1362.45</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>47124.04386304603</v>
+        <v>45856.85386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.002017395264366673</v>
+        <v>0.02885366552526111</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,19 @@
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="17" max="17"/>
+    <col width="16" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -495,47 +499,67 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRIFERIAS</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>INODOROS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>LAVABOS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LED</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PANELES DECORATIVOS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PIEDRA SINTERIZADA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PORCELANATO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>PUERTAS DE SEGURIDAD</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
         </is>
       </c>
     </row>
@@ -586,6 +610,18 @@
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -634,6 +670,18 @@
       <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -682,6 +730,18 @@
       <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -730,6 +790,18 @@
       <c r="N5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -770,12 +842,24 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
         <v>117.94</v>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -826,6 +910,18 @@
       <c r="N7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -866,12 +962,24 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
         <v>-22.68</v>
       </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -922,6 +1030,18 @@
       <c r="N9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -970,6 +1090,18 @@
       <c r="N10" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1018,6 +1150,18 @@
       <c r="N11" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1066,6 +1210,18 @@
       <c r="N12" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1114,6 +1270,18 @@
       <c r="N13" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1162,6 +1330,18 @@
       <c r="N14" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1210,6 +1390,18 @@
       <c r="N15" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1258,6 +1450,18 @@
       <c r="N16" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1306,6 +1510,18 @@
       <c r="N17" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1354,6 +1570,18 @@
       <c r="N18" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="4" t="inlineStr">
@@ -1403,15 +1631,35 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
           <t>1 de 17</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="P19" s="4" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>0 de 17</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>117.94</v>
+        <v>15693.84</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>4481.57</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>2 de 17</t>
         </is>
       </c>
       <c r="N19" s="4" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1859,7 +1859,7 @@
         <v>2867.6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>117.94</v>
+        <v>15693.84</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>24096.93</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>4481.57</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1362.45</v>
+        <v>21419.92</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2228,9 +2228,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2616,13 +2616,13 @@
         <v>28209.84</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>95.26000000000001</v>
+        <v>20152.73</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>28114.58</v>
+        <v>8057.110000000001</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.003376835884216288</v>
+        <v>0.7143865402994133</v>
       </c>
     </row>
     <row r="17">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1362.45</v>
+        <v>21419.92</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45856.85386304604</v>
+        <v>25799.38386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.02885366552526111</v>
+        <v>0.4536263402384314</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0</v>
+        <v>-18.25</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>4277.03</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1267.19</v>
+        <v>1248.94</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21419.92</v>
+        <v>21401.67</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2616,13 +2616,13 @@
         <v>28209.84</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>20152.73</v>
+        <v>20134.48</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8057.110000000001</v>
+        <v>8075.360000000001</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.7143865402994133</v>
+        <v>0.7137396029186979</v>
       </c>
     </row>
     <row r="17">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>21419.92</v>
+        <v>21401.67</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>25799.38386304603</v>
+        <v>25817.63386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4536263402384314</v>
+        <v>0.4532398457646261</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0</v>
+        <v>748.52</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>0 de 17</t>
+          <t>1 de 17</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>748.52</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21401.67</v>
+        <v>22150.19</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>800</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>748.52</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>800</v>
+        <v>51.48000000000002</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>0.93565</v>
       </c>
     </row>
     <row r="8">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>21401.67</v>
+        <v>22150.19</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>25817.63386304603</v>
+        <v>25069.11386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4532398457646261</v>
+        <v>0.4690918371910773</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -713,7 +713,7 @@
         <v>748.52</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>129.36</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>0 de 17</t>
+          <t>1 de 17</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>748.52</v>
+        <v>877.88</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22150.19</v>
+        <v>22279.55</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>129.36</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>625</v>
+        <v>495.64</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0</v>
+        <v>0.206976</v>
       </c>
     </row>
     <row r="9">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>22150.19</v>
+        <v>22279.55</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>25069.11386304603</v>
+        <v>24939.75386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4690918371910773</v>
+        <v>0.4718313947325267</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -713,7 +713,7 @@
         <v>748.52</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>129.36</v>
+        <v>29.29</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>877.88</v>
+        <v>777.8099999999999</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22279.55</v>
+        <v>22179.48</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>129.36</v>
+        <v>29.29</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>495.64</v>
+        <v>595.71</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.206976</v>
+        <v>0.046864</v>
       </c>
     </row>
     <row r="9">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>22279.55</v>
+        <v>22179.48</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>24939.75386304603</v>
+        <v>25039.82386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4718313947325267</v>
+        <v>0.4697121343493106</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>15693.84</v>
+        <v>25219.13</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>2867.6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>15693.84</v>
+        <v>25219.13</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22179.48</v>
+        <v>31704.77</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2616,13 +2616,13 @@
         <v>28209.84</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>20134.48</v>
+        <v>29659.77</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8075.360000000001</v>
+        <v>-1449.93</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.7137396029186979</v>
+        <v>1.05139802281757</v>
       </c>
     </row>
     <row r="17">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>22179.48</v>
+        <v>31704.77</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>25039.82386304603</v>
+        <v>15514.53386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4697121343493106</v>
+        <v>0.6714366245626133</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>851.76</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="Q19" s="4" t="inlineStr">
         <is>
-          <t>0 de 17</t>
+          <t>1 de 17</t>
         </is>
       </c>
       <c r="R19" s="4" t="inlineStr">
@@ -2102,7 +2102,7 @@
         <v>4277.03</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1248.94</v>
+        <v>2100.7</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31704.77</v>
+        <v>32556.53</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2568,13 +2568,13 @@
         <v>483</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>851.76</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>483</v>
+        <v>-368.76</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0</v>
+        <v>1.763478260869565</v>
       </c>
     </row>
     <row r="15">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>31704.77</v>
+        <v>32556.53</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>15514.53386304603</v>
+        <v>14662.77386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.6714366245626133</v>
+        <v>0.6894750099329362</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>1317.8</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1361,13 +1361,13 @@
         <v>1267.19</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0</v>
+        <v>40.74</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>0</v>
@@ -1596,47 +1596,47 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
+          <t>1 de 17</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>1 de 17</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>1 de 17</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>1 de 17</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
-        <is>
-          <t>1 de 17</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>1 de 17</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>0 de 17</t>
         </is>
       </c>
-      <c r="K19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="L19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>2 de 17</t>
+          <t>4 de 17</t>
         </is>
       </c>
       <c r="N19" s="4" t="inlineStr">
@@ -1778,7 +1778,7 @@
         <v>3054.27</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>1317.8</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>156.67</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>4277.03</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2100.7</v>
+        <v>2206.26</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32556.53</v>
+        <v>33991.41</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2328,13 +2328,13 @@
         <v>372.993863046034</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>372.993863046034</v>
+        <v>308.173863046034</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>0.1737830201029341</v>
       </c>
     </row>
     <row r="5">
@@ -2376,13 +2376,13 @@
         <v>106.82</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>40.74</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>106.82</v>
+        <v>66.07999999999998</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0</v>
+        <v>0.381389252948886</v>
       </c>
     </row>
     <row r="7">
@@ -2616,13 +2616,13 @@
         <v>28209.84</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>29659.77</v>
+        <v>30989.09</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1449.93</v>
+        <v>-2779.25</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1.05139802281757</v>
+        <v>1.098520587142642</v>
       </c>
     </row>
     <row r="17">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>32556.53</v>
+        <v>33991.41</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>14662.77386304603</v>
+        <v>13227.89386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.6894750099329362</v>
+        <v>0.7198625820191682</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>25219.13</v>
+        <v>25364.28</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1541,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>194.46</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>122.22</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>2 de 17</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>2 de 17</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
@@ -1859,7 +1859,7 @@
         <v>2867.6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>25219.13</v>
+        <v>25364.28</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>24096.93</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4481.57</v>
+        <v>4798.25</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>37455.34</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33991.41</v>
+        <v>34453.24</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -2328,13 +2328,13 @@
         <v>372.993863046034</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>259.28</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>308.173863046034</v>
+        <v>113.713863046034</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.1737830201029341</v>
+        <v>0.6951320804117366</v>
       </c>
     </row>
     <row r="5">
@@ -2376,13 +2376,13 @@
         <v>106.82</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>40.74</v>
+        <v>162.96</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>66.07999999999998</v>
+        <v>-56.14000000000001</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.381389252948886</v>
+        <v>1.525557011795544</v>
       </c>
     </row>
     <row r="7">
@@ -2616,13 +2616,13 @@
         <v>28209.84</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>30989.09</v>
+        <v>31134.24</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-2779.25</v>
+        <v>-2924.400000000001</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1.098520587142642</v>
+        <v>1.103665954858305</v>
       </c>
     </row>
     <row r="17">
@@ -2683,13 +2683,13 @@
         <v>47219.30386304604</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>33991.41</v>
+        <v>34453.24000000001</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>13227.89386304603</v>
+        <v>12766.06386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.7198625820191682</v>
+        <v>0.7296431158732777</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>1317.8</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>748.52</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>29.29</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>25364.28</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>-22.68</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1358,16 +1358,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1267.19</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>64.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>40.74</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>-18.25</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>851.76</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1541,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>194.46</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>122.22</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4481.57</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>0</v>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>2 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>4 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="N19" s="4" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="Q19" s="4" t="inlineStr">
         <is>
-          <t>1 de 17</t>
+          <t>0 de 17</t>
         </is>
       </c>
       <c r="R19" s="4" t="inlineStr">
@@ -1686,10 +1686,10 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1706,22 +1706,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>-49.25</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-49.25</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>3054.27</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3054.27</v>
+        <v>1317.8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1317.8</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>777.8099999999999</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>777.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1728.53</v>
+        <v>11287.86</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>11287.86</v>
+        <v>2867.6</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2867.6</v>
+        <v>25364.28</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>25364.28</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
@@ -1904,16 +1904,16 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-266.91</v>
+        <v>1183.91</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1183.91</v>
+        <v>2785.1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2785.1</v>
+        <v>-22.68</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-22.68</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>4896.51</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>8752.889999999999</v>
+        <v>5556.96</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5556.96</v>
+        <v>156.67</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>156.67</v>
+        <v>11.52</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>648.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -2069,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>40.19</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>40.19</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>4277.03</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4277.03</v>
+        <v>4321.33</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2206.26</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>126.72</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3152.52</v>
+        <v>7441.92</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>7441.92</v>
+        <v>24096.93</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>24096.93</v>
+        <v>4798.25</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4798.25</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0</v>
@@ -2191,16 +2191,16 @@
     </row>
     <row r="19">
       <c r="C19" s="6" t="n">
-        <v>19039.07</v>
+        <v>25470.65</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25470.65</v>
+        <v>37455.34</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37455.34</v>
+        <v>36568.31</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34453.24</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>6266.88</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>0 de 17</t>
+          <t>1 de 17</t>
         </is>
       </c>
       <c r="N19" s="4" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1967,7 +1967,7 @@
         <v>11.52</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>6266.88</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>36568.31</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0</v>
+        <v>6266.88</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7">
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="10">
@@ -1970,7 +1970,7 @@
         <v>6266.88</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16">
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="19">
@@ -2203,7 +2203,7 @@
         <v>6266.88</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0</v>
+        <v>60225</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -2228,8 +2228,8 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -2304,13 +2304,13 @@
         <v>8668.91</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1267.19</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7401.719999999999</v>
+        <v>8668.91</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.1461763935719716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2328,13 +2328,13 @@
         <v>372.993863046034</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>259.28</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>113.713863046034</v>
+        <v>372.993863046034</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.6951320804117366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2376,13 +2376,13 @@
         <v>106.82</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>162.96</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-56.14000000000001</v>
+        <v>106.82</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1.525557011795544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2397,16 +2397,16 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>748.52</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>51.48000000000002</v>
+        <v>1600</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.93565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2424,13 +2424,13 @@
         <v>625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>29.29</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>595.71</v>
+        <v>625</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.046864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>0</v>
@@ -2565,16 +2565,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>483</v>
+        <v>240</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>851.76</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-368.76</v>
+        <v>240</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>1.763478260869565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2613,16 +2613,16 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>28209.84</v>
+        <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>31134.24</v>
+        <v>6266.88</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-2924.400000000001</v>
+        <v>32489.66</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1.103665954858305</v>
+        <v>0.1616986449254758</v>
       </c>
     </row>
     <row r="17">
@@ -2680,16 +2680,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>47219.30386304604</v>
+        <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>34453.24000000001</v>
+        <v>6266.88</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>12766.06386304603</v>
+        <v>51956.12386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.7296431158732777</v>
+        <v>0.1076358068838418</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CONZA VEGA FRANCO BLADYMIR</t>
+          <t>CONSTANTE CAMACHO ARIANA ELIZABETH</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DDH S.A.S.</t>
+          <t>CONZA VEGA FRANCO BLADYMIR</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F.V - AREA ANDINA S.A.</t>
+          <t>CULMA OVIEDO NINI JOHANA</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6266.88</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FERRIACABADOS MACONSE</t>
+          <t>DDH S.A.S.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GANCHOZO CEDEÑO YURI MERCEDES</t>
+          <t>F.V - AREA ANDINA S.A.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>6266.88</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MUNDO-CERAMICO CIA.LTDA.</t>
+          <t>FERRIACABADOS MACONSE</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
+          <t>GANCHOZO CEDEÑO YURI MERCEDES</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
+          <t>LUNA PAZMIÑO MYRIAM DEL ROCIO</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
+          <t>MERIZALDE PEREIRA KAREN ELIZABETH</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+          <t>MUNDIACABADOS CIA. LTDA.</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1531,137 +1531,437 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>MUNDO-CERAMICO CIA.LTDA.</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>ZAMBRANO ANGELA MARIA</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="L19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="inlineStr">
-        <is>
-          <t>1 de 17</t>
-        </is>
-      </c>
-      <c r="N19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="O19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="P19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="Q19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
-        </is>
-      </c>
-      <c r="R19" s="4" t="inlineStr">
-        <is>
-          <t>0 de 17</t>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>1 de 22</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="P24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="R24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1900,23 +2200,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CONZA VEGA FRANCO BLADYMIR</t>
+          <t>CONSTANTE CAMACHO ARIANA ELIZABETH</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1183.91</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2785.1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-22.68</v>
+        <v>2261.64</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1927,23 +2227,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DDH S.A.S.</t>
+          <t>CONZA VEGA FRANCO BLADYMIR</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>1183.91</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>2785.1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>-22.68</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1425</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10">
@@ -1954,23 +2254,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F.V - AREA ANDINA S.A.</t>
+          <t>CULMA OVIEDO NINI JOHANA</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>5556.96</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>156.67</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>11.52</v>
+        <v>851.4299999999999</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6266.88</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1981,7 +2281,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FERRIACABADOS MACONSE</t>
+          <t>DDH S.A.S.</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -1997,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3000</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="12">
@@ -2008,23 +2308,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GANCHOZO CEDEÑO YURI MERCEDES</t>
+          <t>F.V - AREA ANDINA S.A.</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0</v>
+        <v>5556.96</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>156.67</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>6266.88</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="13">
@@ -2035,7 +2335,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MUNDO-CERAMICO CIA.LTDA.</t>
+          <t>FERRIACABADOS MACONSE</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -2051,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="14">
@@ -2062,14 +2362,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
+          <t>GANCHOZO CEDEÑO YURI MERCEDES</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>40.19</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2078,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
@@ -2089,23 +2389,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
+          <t>LUNA PAZMIÑO MYRIAM DEL ROCIO</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4277.03</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4321.33</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2116,7 +2416,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
+          <t>MERIZALDE PEREIRA KAREN ELIZABETH</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -2143,11 +2443,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+          <t>MUNDIACABADOS CIA. LTDA.</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>-545.1799999999999</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -2159,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2170,39 +2470,174 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>MUNDO-CERAMICO CIA.LTDA.</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>40.19</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>4277.03</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>4321.33</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>ZAMBRANO ANGELA MARIA</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C23" s="2" t="n">
         <v>7441.92</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D23" s="2" t="n">
         <v>24096.93</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E23" s="2" t="n">
         <v>4798.25</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="6" t="n">
-        <v>25470.65</v>
-      </c>
-      <c r="D19" s="6" t="n">
+    <row r="24">
+      <c r="C24" s="6" t="n">
+        <v>24925.47</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>37455.34</v>
       </c>
-      <c r="E19" s="6" t="n">
-        <v>36568.31</v>
-      </c>
-      <c r="F19" s="6" t="n">
+      <c r="E24" s="6" t="n">
+        <v>39681.38</v>
+      </c>
+      <c r="F24" s="6" t="n">
         <v>6266.88</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G24" s="6" t="n">
         <v>60225</v>
       </c>
     </row>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>3317.32</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>2 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2078,7 +2078,7 @@
         <v>1317.8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>3317.32</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>3500</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>6266.88</v>
+        <v>9584.200000000001</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2663,7 +2663,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6266.88</v>
+        <v>9584.200000000001</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>32489.66</v>
+        <v>29172.34</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.1616986449254758</v>
+        <v>0.2472924569633925</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6266.88</v>
+        <v>9584.200000000001</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>51956.12386304603</v>
+        <v>48638.80386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.1076358068838418</v>
+        <v>0.1646119122013054</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0</v>
+        <v>7529.26</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>2 de 22</t>
+          <t>3 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>7529.26</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>3000</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>9584.200000000001</v>
+        <v>17113.46</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2663,7 +2663,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>9584.200000000001</v>
+        <v>17113.46</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>29172.34</v>
+        <v>21643.08</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.2472924569633925</v>
+        <v>0.4415631529543143</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>9584.200000000001</v>
+        <v>17113.46</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>48638.80386304604</v>
+        <v>41109.54386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.1646119122013054</v>
+        <v>0.2939295272407245</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
+        <v>366.83</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>3 de 22</t>
+          <t>4 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
+        <v>366.83</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>2000</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>17113.46</v>
+        <v>17480.29</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2665,7 +2665,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>17113.46</v>
+        <v>17480.29</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>21643.08</v>
+        <v>21276.25</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.4415631529543143</v>
+        <v>0.451028136154569</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>17113.46</v>
+        <v>17480.29</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>41109.54386304603</v>
+        <v>40742.71386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.2939295272407245</v>
+        <v>0.3002299579238076</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6266.88</v>
+        <v>12246.22</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2321,7 +2321,7 @@
         <v>11.52</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6266.88</v>
+        <v>12246.22</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>12000</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>17480.29</v>
+        <v>23459.63</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2665,7 +2665,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>17480.29</v>
+        <v>23459.63</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>21276.25</v>
+        <v>15296.91</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.451028136154569</v>
+        <v>0.6053076461417867</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>17480.29</v>
+        <v>23459.63</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>40742.71386304603</v>
+        <v>34763.37386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.3002299579238076</v>
+        <v>0.4029271669868232</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>132.3</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>651.72</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>1465.34</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1372.56</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -1891,52 +1891,52 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
+          <t>1 de 22</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>1 de 22</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>0 de 22</t>
+          <t>1 de 22</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>4 de 22</t>
+          <t>5 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2213,7 +2213,7 @@
         <v>2261.64</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>784.02</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>851.4299999999999</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>2837.9</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>23459.63</v>
+        <v>27081.55</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2739,13 +2739,13 @@
         <v>8668.91</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>1465.34</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8668.91</v>
+        <v>7203.57</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>0.1690339385228362</v>
       </c>
     </row>
     <row r="4">
@@ -2859,13 +2859,13 @@
         <v>625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>132.3</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>625</v>
+        <v>492.7</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0</v>
+        <v>0.21168</v>
       </c>
     </row>
     <row r="9">
@@ -3027,13 +3027,13 @@
         <v>2501.01</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>1372.56</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2501.01</v>
+        <v>1128.45</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0</v>
+        <v>0.5488022838773134</v>
       </c>
     </row>
     <row r="16">
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>23459.63</v>
+        <v>24111.35</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>15296.91</v>
+        <v>14645.19</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.6053076461417867</v>
+        <v>0.6221233887235548</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>23459.63</v>
+        <v>27081.55</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>34763.37386304603</v>
+        <v>31141.45386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4029271669868232</v>
+        <v>0.4651348814585738</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>566.78</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>651.72</v>
+        <v>3724.65</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>2 de 22</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -2213,7 +2213,7 @@
         <v>2261.64</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>784.02</v>
+        <v>4423.73</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>27081.55</v>
+        <v>30721.26</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2739,13 +2739,13 @@
         <v>8668.91</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1465.34</v>
+        <v>2032.12</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7203.57</v>
+        <v>6636.79</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.1690339385228362</v>
+        <v>0.2344147072700028</v>
       </c>
     </row>
     <row r="4">
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>24111.35</v>
+        <v>27184.28</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>14645.19</v>
+        <v>11572.26</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.6221233887235548</v>
+        <v>0.7014114263037928</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>27081.55</v>
+        <v>30721.26</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>31141.45386304604</v>
+        <v>27501.74386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.4651348814585738</v>
+        <v>0.5276481452633998</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>5 de 22</t>
+          <t>6 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1425</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30721.26</v>
+        <v>30727.2</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>27184.28</v>
+        <v>27190.22</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>11572.26</v>
+        <v>11566.32</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.7014114263037928</v>
+        <v>0.7015646907592886</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>30721.26</v>
+        <v>30727.2</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>27501.74386304603</v>
+        <v>27495.80386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5276481452633998</v>
+        <v>0.5277501667945109</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>6 de 22</t>
+          <t>7 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2159,7 +2159,7 @@
         <v>25364.28</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>12000</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30727.2</v>
+        <v>30732.96</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>27190.22</v>
+        <v>27195.98</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>11566.32</v>
+        <v>11560.56</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.7015646907592886</v>
+        <v>0.7017133108373451</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>30727.2</v>
+        <v>30732.96</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>27495.80386304604</v>
+        <v>27490.04386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5277501667945109</v>
+        <v>0.5278490967640733</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.76</v>
+        <v>2654.94</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>25364.28</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.76</v>
+        <v>2654.94</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>12000</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30732.96</v>
+        <v>33382.14</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2664,7 +2664,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>27195.98</v>
+        <v>29845.16</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>11560.56</v>
+        <v>8911.380000000001</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.7017133108373451</v>
+        <v>0.7700677098626451</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>30732.96</v>
+        <v>33382.14</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>27490.04386304603</v>
+        <v>24840.86386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5278490967640733</v>
+        <v>0.5733496691191425</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>7 de 22</t>
+          <t>8 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1500</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>33382.14</v>
+        <v>33415.84</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2664,7 +2664,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>29845.16</v>
+        <v>29878.86</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8911.380000000001</v>
+        <v>8877.68</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.7700677098626451</v>
+        <v>0.7709372405276632</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>33382.14</v>
+        <v>33415.84</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>24840.86386304603</v>
+        <v>24807.16386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5733496691191425</v>
+        <v>0.5739284781424501</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>445.7</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>127.56</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>518.4</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>207.38</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
+        <v>366.3</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="12">
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0</v>
+        <v>15441.74</v>
       </c>
       <c r="N23" s="2" t="n">
         <v>0</v>
@@ -1886,82 +1886,82 @@
     <row r="24">
       <c r="C24" s="4" t="inlineStr">
         <is>
+          <t>1 de 22</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>2 de 22</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2 de 22</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>1 de 22</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
         <is>
           <t>2 de 22</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>1 de 22</t>
+        </is>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>9 de 22</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>0 de 22</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="P24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t>0 de 22</t>
+        </is>
+      </c>
+      <c r="R24" s="4" t="inlineStr">
         <is>
           <t>1 de 22</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>1 de 22</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>8 de 22</t>
-        </is>
-      </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="R24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
         <v>1317.8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3317.32</v>
+        <v>3890.58</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>3500</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.94</v>
+        <v>1228.52</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1425</v>
@@ -2618,7 +2618,7 @@
         <v>4798.25</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>15441.74</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>20000</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>33415.84</v>
+        <v>50653.42</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2663,8 +2663,8 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -2715,13 +2715,13 @@
         <v>1041.16</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>518.4</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1041.16</v>
+        <v>522.7600000000001</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0</v>
+        <v>0.497906181566714</v>
       </c>
     </row>
     <row r="3">
@@ -2763,13 +2763,13 @@
         <v>372.993863046034</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>653.08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>372.993863046034</v>
+        <v>-280.086136953966</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>1.750913526208335</v>
       </c>
     </row>
     <row r="5">
@@ -2811,13 +2811,13 @@
         <v>106.82</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>127.56</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>106.82</v>
+        <v>-20.74000000000001</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0</v>
+        <v>1.194158397303876</v>
       </c>
     </row>
     <row r="7">
@@ -2859,13 +2859,13 @@
         <v>625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>132.3</v>
+        <v>498.6</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>492.7</v>
+        <v>126.4</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.21168</v>
+        <v>0.79776</v>
       </c>
     </row>
     <row r="9">
@@ -2979,13 +2979,13 @@
         <v>130</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>130.5</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>130</v>
+        <v>-0.5</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0</v>
+        <v>1.003846153846154</v>
       </c>
     </row>
     <row r="14">
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>29878.86</v>
+        <v>45320.6</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8877.68</v>
+        <v>-6564.059999999998</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.7709372405276632</v>
+        <v>1.169366512077703</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>33415.84</v>
+        <v>50653.42</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>24807.16386304604</v>
+        <v>7569.583863046037</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.5739284781424501</v>
+        <v>0.8699898088245078</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.94</v>
+        <v>3864.56</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1228.52</v>
+        <v>5087.14</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1425</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>50653.42</v>
+        <v>54512.04</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -2663,7 +2663,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="24" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45320.6</v>
+        <v>49179.22</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-6564.059999999998</v>
+        <v>-10422.68</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1.169366512077703</v>
+        <v>1.268926999159368</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>50653.42</v>
+        <v>54512.04</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>7569.583863046037</v>
+        <v>3710.963863046034</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.8699898088245078</v>
+        <v>0.9362629267329615</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3317.32</v>
+        <v>6263.28</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>1317.8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3890.58</v>
+        <v>6836.54</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>3500</v>
@@ -2635,7 +2635,7 @@
         <v>39681.38</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>54512.04</v>
+        <v>57458</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>
@@ -3051,13 +3051,13 @@
         <v>38756.54</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>49179.22</v>
+        <v>52125.18</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-10422.68</v>
+        <v>-13368.64</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1.268926999159368</v>
+        <v>1.344938944498141</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>58223.00386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>54512.04</v>
+        <v>57458</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>3710.963863046034</v>
+        <v>765.0038630460349</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.9362629267329615</v>
+        <v>0.9868607970683633</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>445.7</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>127.56</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6263.28</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>366.83</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>2654.94</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>566.78</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3724.65</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1465.34</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1372.56</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>518.4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>207.38</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>366.3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3864.56</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>130.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>12246.22</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>7529.26</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>33.7</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>15441.74</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2" t="n">
         <v>0</v>
@@ -1886,17 +1886,17 @@
     <row r="24">
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>2 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>2 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>9 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2006,22 +2006,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>-49.25</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-49.25</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>3054.27</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3054.27</v>
+        <v>1317.8</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1317.8</v>
+        <v>6836.54</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6836.54</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>3500</v>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>777.8099999999999</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>777.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>226.8</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>366.83</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>366.83</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>2000</v>
@@ -2150,16 +2150,16 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>11287.86</v>
+        <v>2867.6</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2867.6</v>
+        <v>25364.28</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>25364.28</v>
+        <v>2654.94</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2654.94</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>12000</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>2261.64</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2261.64</v>
+        <v>4423.73</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4423.73</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1183.91</v>
+        <v>2785.1</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2785.1</v>
+        <v>-22.68</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-22.68</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -2261,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>851.4299999999999</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>851.4299999999999</v>
+        <v>4229.93</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2837.9</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>5087.14</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5087.14</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1425</v>
@@ -2312,16 +2312,16 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5556.96</v>
+        <v>156.67</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>156.67</v>
+        <v>11.52</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>11.52</v>
+        <v>12246.22</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>12246.22</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>12000</v>
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>7529.26</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7529.26</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>3000</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>220.5</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-545.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -2501,16 +2501,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>40.19</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>40.19</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>33.7</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1500</v>
@@ -2528,13 +2528,13 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>4277.03</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4277.03</v>
+        <v>4321.33</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>4321.33</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>7441.92</v>
+        <v>24096.93</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>24096.93</v>
+        <v>4798.25</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>4798.25</v>
+        <v>16408.39</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>15441.74</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>20000</v>
@@ -2626,16 +2626,16 @@
     </row>
     <row r="24">
       <c r="C24" s="6" t="n">
-        <v>24925.47</v>
+        <v>37455.34</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>37455.34</v>
+        <v>39681.38</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>39681.38</v>
+        <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>57458</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>60225</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -2663,9 +2663,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2715,13 +2715,13 @@
         <v>1041.16</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>518.4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>522.7600000000001</v>
+        <v>1041.16</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.497906181566714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2739,13 +2739,13 @@
         <v>8668.91</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2032.12</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6636.79</v>
+        <v>8668.91</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.2344147072700028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2763,13 +2763,13 @@
         <v>372.993863046034</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>653.08</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-280.086136953966</v>
+        <v>372.993863046034</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1.750913526208335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2811,13 +2811,13 @@
         <v>106.82</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>127.56</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-20.74000000000001</v>
+        <v>106.82</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1.194158397303876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2859,13 +2859,13 @@
         <v>625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>498.6</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>126.4</v>
+        <v>625</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.79776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>0</v>
@@ -2976,16 +2976,16 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>130.5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>1.003846153846154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3000,13 +3000,13 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
@@ -3027,13 +3027,13 @@
         <v>2501.01</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1372.56</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1128.45</v>
+        <v>2501.01</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.5488022838773134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3048,16 +3048,16 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>38756.54</v>
+        <v>36056.7</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>52125.18</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-13368.64</v>
+        <v>36056.7</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1.344938944498141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3115,16 +3115,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>58223.00386304603</v>
+        <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>57458</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>765.0038630460349</v>
+        <v>55023.16386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.9868607970683633</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7">
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="13">
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21">
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>60225</v>
+        <v>48450</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>1090.97</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>0 de 22</t>
+          <t>1 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2321,7 +2321,7 @@
         <v>12246.22</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1090.97</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0</v>
+        <v>1090.97</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2663,9 +2663,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3051,13 +3051,13 @@
         <v>36056.7</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>1090.97</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>36056.7</v>
+        <v>34965.73</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0</v>
+        <v>0.0302570673411599</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>1090.97</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>55023.16386304603</v>
+        <v>53932.19386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0</v>
+        <v>0.0198274676228261</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>-33.7</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>33.7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>-33.7</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1000</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1090.97</v>
+        <v>1057.27</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2665,7 +2665,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3051,13 +3051,13 @@
         <v>36056.7</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1090.97</v>
+        <v>1057.27</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>34965.73</v>
+        <v>34999.43</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.0302570673411599</v>
+        <v>0.02932242828655978</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1090.97</v>
+        <v>1057.27</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>53932.19386304604</v>
+        <v>53965.89386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.0198274676228261</v>
+        <v>0.01921499829838157</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0</v>
+        <v>1980.66</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>2 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1980.66</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2000</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1057.27</v>
+        <v>3037.93</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2665,7 +2665,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3051,13 +3051,13 @@
         <v>36056.7</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1057.27</v>
+        <v>3037.93</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>34999.43</v>
+        <v>33018.77</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.02932242828655978</v>
+        <v>0.0842542440101285</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1057.27</v>
+        <v>3037.93</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>53965.89386304603</v>
+        <v>51985.23386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.01921499829838157</v>
+        <v>0.05521183782818233</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>1980.66</v>
+        <v>2161.81</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1980.66</v>
+        <v>2161.81</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2000</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3037.93</v>
+        <v>3219.08</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2665,7 +2665,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3051,13 +3051,13 @@
         <v>36056.7</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3037.93</v>
+        <v>3219.08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>33018.77</v>
+        <v>32837.62</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.0842542440101285</v>
+        <v>0.08927827560481132</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3037.93</v>
+        <v>3219.08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>51985.23386304603</v>
+        <v>51804.08386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.05521183782818233</v>
+        <v>0.05850408762412076</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0</v>
+        <v>-81.41</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>16408.39</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>-81.41</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>20000</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3219.08</v>
+        <v>3137.67</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2665,7 +2665,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2739,13 +2739,13 @@
         <v>8668.91</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>-81.41</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8668.91</v>
+        <v>8750.32</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>-0.009391030706282565</v>
       </c>
     </row>
     <row r="4">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3219.08</v>
+        <v>3137.67</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>51804.08386304603</v>
+        <v>51885.49386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.05850408762412076</v>
+        <v>0.05702452893857096</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>366.34</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>0 de 22</t>
+          <t>1 de 22</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -2267,7 +2267,7 @@
         <v>4229.93</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>366.34</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3137.67</v>
+        <v>3504.01</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2665,7 +2665,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2739,13 +2739,13 @@
         <v>8668.91</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-81.41</v>
+        <v>284.93</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8750.32</v>
+        <v>8383.98</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-0.009391030706282565</v>
+        <v>0.03286803069820773</v>
       </c>
     </row>
     <row r="4">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3137.67</v>
+        <v>3504.01</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>51885.49386304604</v>
+        <v>51519.15386304603</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.05702452893857096</v>
+        <v>0.06368245215272543</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>0 de 22</t>
+          <t>1 de 22</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
@@ -2294,7 +2294,7 @@
         <v>5087.14</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1500</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3504.01</v>
+        <v>3757.45</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -3027,13 +3027,13 @@
         <v>2501.01</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>253.44</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2501.01</v>
+        <v>2247.57</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0</v>
+        <v>0.1013350606355033</v>
       </c>
     </row>
     <row r="16">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3504.01</v>
+        <v>3757.45</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>51519.15386304603</v>
+        <v>51265.71386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.06368245215272543</v>
+        <v>0.06828851225917111</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>274.75</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>2 de 22</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>274.75</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>2000</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3757.45</v>
+        <v>4032.2</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2739,13 +2739,13 @@
         <v>8668.91</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>284.93</v>
+        <v>559.6799999999999</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8383.98</v>
+        <v>8109.23</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.03286803069820773</v>
+        <v>0.06456174997779421</v>
       </c>
     </row>
     <row r="4">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3757.45</v>
+        <v>4032.2</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>51265.71386304604</v>
+        <v>50990.96386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.06828851225917111</v>
+        <v>0.07328186379896733</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>4392.44</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>2 de 22</t>
+          <t>3 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2159,7 +2159,7 @@
         <v>2654.94</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>4392.44</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2635,7 +2635,7 @@
         <v>60037.18</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>4032.2</v>
+        <v>8424.639999999999</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -3051,13 +3051,13 @@
         <v>36056.7</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3219.08</v>
+        <v>7611.52</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>32837.62</v>
+        <v>28445.18</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.08927827560481132</v>
+        <v>0.2110986307676521</v>
       </c>
     </row>
     <row r="17">
@@ -3118,13 +3118,13 @@
         <v>55023.16386304603</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4032.2</v>
+        <v>8424.639999999999</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>50990.96386304604</v>
+        <v>46598.52386304604</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.07328186379896733</v>
+        <v>0.1531107884121155</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4392.44</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>2161.81</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>366.34</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>1090.97</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>-33.7</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>274.75</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-81.41</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>2 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>3 de 22</t>
+          <t>0 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -1988,8 +1988,8 @@
     <col width="36" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2006,22 +2006,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-49.25</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -2069,13 +2069,13 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3054.27</v>
+        <v>1317.8</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1317.8</v>
+        <v>6836.54</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6836.54</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>777.8099999999999</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>777.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>366.83</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>366.83</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
@@ -2150,16 +2150,16 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>2867.6</v>
+        <v>25364.28</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>25364.28</v>
+        <v>2654.94</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2654.94</v>
+        <v>4392.44</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4392.44</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2204,13 +2204,13 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>2261.64</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2261.64</v>
+        <v>4423.73</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4423.73</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
@@ -2231,16 +2231,16 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2785.1</v>
+        <v>-22.68</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-22.68</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>2161.81</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2161.81</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2000</v>
@@ -2258,16 +2258,16 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>851.4299999999999</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>851.4299999999999</v>
+        <v>4229.93</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4229.93</v>
+        <v>366.34</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>366.34</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>5087.14</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>5087.14</v>
+        <v>253.44</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>253.44</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1500</v>
@@ -2312,16 +2312,16 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>156.67</v>
+        <v>11.52</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>11.52</v>
+        <v>12246.22</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>12246.22</v>
+        <v>1090.97</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1090.97</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2342,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>7529.26</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>7529.26</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>220.5</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>220.5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -2501,16 +2501,16 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>40.19</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>33.7</v>
+        <v>-33.7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-33.7</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>1000</v>
@@ -2528,16 +2528,16 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4277.03</v>
+        <v>4321.33</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>4321.33</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>274.75</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>274.75</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>2000</v>
@@ -2609,16 +2609,16 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>24096.93</v>
+        <v>4798.25</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>4798.25</v>
+        <v>16408.39</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>16408.39</v>
+        <v>-81.41</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-81.41</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>20000</v>
@@ -2626,16 +2626,16 @@
     </row>
     <row r="24">
       <c r="C24" s="6" t="n">
-        <v>37455.34</v>
+        <v>39681.38</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>39681.38</v>
+        <v>60037.18</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>60037.18</v>
+        <v>8424.639999999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>8424.639999999999</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0</v>
+        <v>306.24</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>0 de 22</t>
+          <t>1 de 22</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>306.24</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>300</v>
@@ -2635,7 +2635,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0</v>
+        <v>306.24</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>733.67</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>0 de 22</t>
+          <t>1 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2159,7 +2159,7 @@
         <v>4392.44</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>733.67</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2635,7 +2635,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>306.24</v>
+        <v>1039.91</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>733.67</v>
+        <v>758.13</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>17176.21</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>1 de 22</t>
+          <t>2 de 22</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2159,7 +2159,7 @@
         <v>4392.44</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>733.67</v>
+        <v>758.13</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2321,7 +2321,7 @@
         <v>1090.97</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>17176.21</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2635,7 +2635,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1039.91</v>
+        <v>18240.58</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>17176.21</v>
+        <v>17352.47</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1090.97</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>17176.21</v>
+        <v>17352.47</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2635,7 +2635,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>18240.58</v>
+        <v>18416.84</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2652,7 +2652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,7 +2665,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1041.16</v>
+        <v>440.717086537713</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1041.16</v>
+        <v>440.717086537713</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -2736,16 +2736,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>8668.91</v>
+        <v>7475.4083879616</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>559.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8109.23</v>
+        <v>7475.4083879616</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.06456174997779421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2760,13 +2760,13 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>372.993863046034</v>
+        <v>485.098641648355</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>372.993863046034</v>
+        <v>485.098641648355</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
@@ -2780,17 +2780,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GRANITO</t>
+          <t>GRIFERIAS</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>238.32</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>238.32</v>
+        <v>150</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
@@ -2804,20 +2804,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GRIFERIAS</t>
+          <t>INODOROS</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>106.82</v>
+        <v>907.166108615601</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>306.24</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>106.82</v>
+        <v>600.926108615601</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0</v>
+        <v>0.3375787489099915</v>
       </c>
     </row>
     <row r="7">
@@ -2828,17 +2828,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INODOROS</t>
+          <t>LAVABOS</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1600</v>
+        <v>665.033262215681</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1600</v>
+        <v>665.033262215681</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
@@ -2852,17 +2852,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAVABOS</t>
+          <t>NO RESURTIBLES</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>625</v>
+        <v>666.586827568148</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>625</v>
+        <v>666.586827568148</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0</v>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>OTROS</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0</v>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NO RESURTIBLES</t>
+          <t>PANELES DECORATIVOS</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>650.25</v>
+        <v>388.107983534392</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>650.25</v>
+        <v>388.107983534392</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>0</v>
@@ -2924,17 +2924,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OTROS</t>
+          <t>PIEDRA SINTERIZADA</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>2922.22458185274</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>2922.22458185274</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>0</v>
@@ -2948,20 +2948,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PANELES DECORATIVOS</t>
+          <t>PORCELANATO</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>100</v>
+        <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>18110.6</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>100</v>
+        <v>24989.4854117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0</v>
+        <v>0.42019870325016</v>
       </c>
     </row>
     <row r="13">
@@ -2972,17 +2972,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PANELES PU</t>
+          <t>PUERTAS DE SEGURIDAD</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>20</v>
+        <v>148.058220160454</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>20</v>
+        <v>148.058220160454</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>0</v>
@@ -2996,135 +2996,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PANELES PVC</t>
+          <t>SAL SOLUBLE</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>100</v>
+        <v>854.979720622497</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>100</v>
+        <v>854.979720622497</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>RIOS CARRION ANGEL BENIGNO</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PIEDRA SINTERIZADA</t>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2501.01</v>
+        <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>253.44</v>
+        <v>18416.84</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2247.57</v>
+        <v>39786.62623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.1013350606355033</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>RIOS CARRION ANGEL BENIGNO</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PORCELANATO</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>36056.7</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>7611.52</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>28445.18</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>0.2110986307676521</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>RIOS CARRION ANGEL BENIGNO</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PUERTAS DE SEGURIDAD</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>RIOS CARRION ANGEL BENIGNO</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SAL SOLUBLE</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>2300</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>55023.16386304603</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>8424.639999999999</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>46598.52386304604</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0.1531107884121155</v>
+        <v>0.3164217046186505</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>506.88</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>758.13</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>0 de 22</t>
+          <t>1 de 22</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
@@ -2159,7 +2159,7 @@
         <v>4392.44</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>758.13</v>
+        <v>1265.01</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2635,7 +2635,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>18416.84</v>
+        <v>18923.72</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>48450</v>
@@ -2931,13 +2931,13 @@
         <v>2922.22458185274</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>506.88</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2922.22458185274</v>
+        <v>2415.34458185274</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0</v>
+        <v>0.1734568941578848</v>
       </c>
     </row>
     <row r="12">
@@ -3022,13 +3022,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>18416.84</v>
+        <v>18923.72</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>39786.62623249458</v>
+        <v>39279.74623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3164217046186505</v>
+        <v>0.325130464299307</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
+          <t>PUEBLA GONZALEZ MARIO DANIEL</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
+          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
+          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1831,137 +1831,197 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>ZAMBRANO ANGELA MARIA</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>1 de 22</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>1 de 22</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>2 de 22</t>
-        </is>
-      </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
-        </is>
-      </c>
-      <c r="R24" s="4" t="inlineStr">
-        <is>
-          <t>0 de 22</t>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>1 de 23</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>1 de 23</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>2 de 23</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr">
+        <is>
+          <t>0 de 23</t>
         </is>
       </c>
     </row>
@@ -1976,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2497,23 +2557,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
+          <t>PUEBLA GONZALEZ MARIO DANIEL</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>33.7</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-33.7</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2524,23 +2584,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
+          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4321.33</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>274.75</v>
+        <v>-33.7</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -2551,23 +2611,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
+          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>4321.33</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>274.75</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22">
@@ -2578,7 +2638,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -2594,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2605,39 +2665,66 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>ZAMBRANO ANGELA MARIA</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C24" s="2" t="n">
         <v>4798.25</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D24" s="2" t="n">
         <v>16408.39</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E24" s="2" t="n">
         <v>-81.41</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="n">
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" s="6" t="n">
+    <row r="25">
+      <c r="C25" s="6" t="n">
         <v>39681.38</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D25" s="6" t="n">
         <v>60037.18</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E25" s="6" t="n">
         <v>8424.639999999999</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F25" s="6" t="n">
         <v>18923.72</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G25" s="6" t="n">
         <v>48450</v>
       </c>
     </row>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>17352.47</v>
+        <v>17655.41</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0</v>
+        <v>1244.13</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>2 de 23</t>
+          <t>3 de 23</t>
         </is>
       </c>
       <c r="N25" s="4" t="inlineStr">
@@ -2381,7 +2381,7 @@
         <v>1090.97</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>17352.47</v>
+        <v>17655.41</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2597,7 +2597,7 @@
         <v>-33.7</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>1244.13</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>1000</v>
@@ -2722,7 +2722,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>18923.72</v>
+        <v>20470.79</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>48450</v>
@@ -2750,7 +2750,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3042,13 +3042,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>18110.6</v>
+        <v>19657.67</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>24989.4854117774</v>
+        <v>23442.4154117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.42019870325016</v>
+        <v>0.4560935277086111</v>
       </c>
     </row>
     <row r="13">
@@ -3109,13 +3109,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>18923.72</v>
+        <v>20470.79</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>39279.74623249458</v>
+        <v>37732.67623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.325130464299307</v>
+        <v>0.3517108400078637</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0</v>
+        <v>9735.9</v>
       </c>
       <c r="N24" s="2" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>3 de 23</t>
+          <t>4 de 23</t>
         </is>
       </c>
       <c r="N25" s="4" t="inlineStr">
@@ -2705,7 +2705,7 @@
         <v>-81.41</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>9735.9</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>20000</v>
@@ -2722,7 +2722,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>20470.79</v>
+        <v>30206.69</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>48450</v>
@@ -3042,13 +3042,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>19657.67</v>
+        <v>29393.57</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>23442.4154117774</v>
+        <v>13706.5154117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.4560935277086111</v>
+        <v>0.6819840313348429</v>
       </c>
     </row>
     <row r="13">
@@ -3109,13 +3109,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>20470.79</v>
+        <v>30206.69</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>37732.67623249458</v>
+        <v>27996.77623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3517108400078637</v>
+        <v>0.5189843828087307</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>3252.41</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>4 de 23</t>
+          <t>5 de 23</t>
         </is>
       </c>
       <c r="N25" s="4" t="inlineStr">
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>3252.41</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>30206.69</v>
+        <v>33459.1</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>48450</v>
@@ -3042,13 +3042,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>29393.57</v>
+        <v>32645.98</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>13706.5154117774</v>
+        <v>10454.1054117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.6819840313348429</v>
+        <v>0.757445830747223</v>
       </c>
     </row>
     <row r="13">
@@ -3109,13 +3109,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>30206.69</v>
+        <v>33459.1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>27996.77623249458</v>
+        <v>24744.36623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.5189843828087307</v>
+        <v>0.5748643880820971</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>-445.7</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>-127.56</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>-2945.96</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>-3858.62</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>-130.5</v>
       </c>
     </row>
     <row r="12">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>-3519.22</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>1500</v>
@@ -2354,7 +2354,7 @@
         <v>253.44</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>-3989.12</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1500</v>
@@ -2722,7 +2722,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>33459.1</v>
+        <v>25950.76</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>48450</v>
@@ -2750,9 +2750,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2850,13 +2850,13 @@
         <v>485.098641648355</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>-445.7</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>485.098641648355</v>
+        <v>930.798641648355</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>-0.9187822057912196</v>
       </c>
     </row>
     <row r="5">
@@ -2874,13 +2874,13 @@
         <v>150</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>-127.56</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>150</v>
+        <v>277.56</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0</v>
+        <v>-0.8504</v>
       </c>
     </row>
     <row r="6">
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>-130.5</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>130.5</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0</v>
@@ -3042,13 +3042,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>32645.98</v>
+        <v>25841.4</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>10454.1054117774</v>
+        <v>17258.6854117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.757445830747223</v>
+        <v>0.5995672573061458</v>
       </c>
     </row>
     <row r="13">
@@ -3109,13 +3109,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>33459.1</v>
+        <v>25950.76</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>24744.36623249458</v>
+        <v>32252.70623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.5748643880820971</v>
+        <v>0.4458627927130546</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MERIZALDE PEREIRA KAREN ELIZABETH</t>
+          <t>MAÑAY REAL NOEMI ELIZABETH</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MUNDIACABADOS CIA. LTDA.</t>
+          <t>MERIZALDE PEREIRA KAREN ELIZABETH</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MUNDO-CERAMICO CIA.LTDA.</t>
+          <t>MUNDIACABADOS CIA. LTDA.</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PUEBLA GONZALEZ MARIO DANIEL</t>
+          <t>MUNDO-CERAMICO CIA.LTDA.</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3252.41</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
+          <t>PUEBLA GONZALEZ MARIO DANIEL</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>1244.13</v>
+        <v>3252.41</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
+          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>1244.13</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
+          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>-20.74</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1891,137 +1891,197 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>ZAMBRANO ANGELA MARIA</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>9735.9</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
-        <is>
-          <t>1 de 23</t>
-        </is>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="L25" s="4" t="inlineStr">
-        <is>
-          <t>1 de 23</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>5 de 23</t>
-        </is>
-      </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
-        </is>
-      </c>
-      <c r="R25" s="4" t="inlineStr">
-        <is>
-          <t>0 de 23</t>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>3690.09</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>1 de 24</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>1 de 24</t>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>5 de 24</t>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="O26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="P26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="Q26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="R26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,14 +2536,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MERIZALDE PEREIRA KAREN ELIZABETH</t>
+          <t>MAÑAY REAL NOEMI ELIZABETH</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>220.5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2492,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2503,14 +2563,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MUNDIACABADOS CIA. LTDA.</t>
+          <t>MERIZALDE PEREIRA KAREN ELIZABETH</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>220.5</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -2519,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18">
@@ -2530,7 +2590,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MUNDO-CERAMICO CIA.LTDA.</t>
+          <t>MUNDIACABADOS CIA. LTDA.</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -2557,7 +2617,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PUEBLA GONZALEZ MARIO DANIEL</t>
+          <t>MUNDO-CERAMICO CIA.LTDA.</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -2570,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3252.41</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
@@ -2584,23 +2644,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
+          <t>PUEBLA GONZALEZ MARIO DANIEL</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>33.7</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-33.7</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1244.13</v>
+        <v>3252.41</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2611,23 +2671,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
+          <t>TAMAYO VILLACIS EDWIN XAVIER</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4321.33</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>274.75</v>
+        <v>-33.7</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>1244.13</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -2638,23 +2698,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
+          <t>TOSCANO RAMIREZ MONICA CECILIA</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>4321.33</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>274.75</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>-20.74</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23">
@@ -2665,7 +2725,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+          <t>VELASQUEZ ARELLANO SAIRA MAGDALENA</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -2681,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2692,39 +2752,66 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>VIDAL VARGAS ANDREA DOMINIQUE</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RIOS CARRION ANGEL BENIGNO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>ZAMBRANO ANGELA MARIA</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C25" s="2" t="n">
         <v>4798.25</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D25" s="2" t="n">
         <v>16408.39</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E25" s="2" t="n">
         <v>-81.41</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>9735.9</v>
-      </c>
-      <c r="G24" s="2" t="n">
+      <c r="F25" s="2" t="n">
+        <v>3690.09</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="6" t="n">
+    <row r="26">
+      <c r="C26" s="6" t="n">
         <v>39681.38</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D26" s="6" t="n">
         <v>60037.18</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E26" s="6" t="n">
         <v>8424.639999999999</v>
       </c>
-      <c r="F25" s="6" t="n">
-        <v>25950.76</v>
-      </c>
-      <c r="G25" s="6" t="n">
+      <c r="F26" s="6" t="n">
+        <v>19884.21</v>
+      </c>
+      <c r="G26" s="6" t="n">
         <v>48450</v>
       </c>
     </row>
@@ -2750,7 +2837,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3042,13 +3129,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>25841.4</v>
+        <v>19774.85</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>17258.6854117774</v>
+        <v>23325.2354117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.5995672573061458</v>
+        <v>0.4588123158242369</v>
       </c>
     </row>
     <row r="13">
@@ -3109,13 +3196,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>25950.76</v>
+        <v>19884.21</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>32252.70623249458</v>
+        <v>38319.25623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.4458627927130546</v>
+        <v>0.3416327460734424</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-20.74</v>
+        <v>-347.92</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>274.75</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-20.74</v>
+        <v>-347.92</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>19884.21</v>
+        <v>19557.03</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>19774.85</v>
+        <v>19447.67</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>23325.2354117774</v>
+        <v>23652.4154117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.4588123158242369</v>
+        <v>0.4512211475730808</v>
       </c>
     </row>
     <row r="13">
@@ -3196,13 +3196,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>19884.21</v>
+        <v>19557.03</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>38319.25623249458</v>
+        <v>38646.43623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3416327460734424</v>
+        <v>0.3360114313790035</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0</v>
+        <v>142.56</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>2 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>2161.81</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>142.56</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>19557.03</v>
+        <v>19699.59</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3105,13 +3105,13 @@
         <v>2922.22458185274</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>506.88</v>
+        <v>649.4400000000001</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2415.34458185274</v>
+        <v>2272.78458185274</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.1734568941578848</v>
+        <v>0.22224164563979</v>
       </c>
     </row>
     <row r="12">
@@ -3196,13 +3196,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>19557.03</v>
+        <v>19699.59</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>38646.43623249458</v>
+        <v>38503.87623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3360114313790035</v>
+        <v>0.3384607700391881</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>829.4400000000001</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>5 de 24</t>
+          <t>6 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>829.4400000000001</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>19699.59</v>
+        <v>20529.03</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>19447.67</v>
+        <v>20277.11</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>23652.4154117774</v>
+        <v>22822.9754117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.4512211475730808</v>
+        <v>0.4704656569998151</v>
       </c>
     </row>
     <row r="13">
@@ -3196,13 +3196,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>19699.59</v>
+        <v>20529.03</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>38503.87623249458</v>
+        <v>37674.43623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3384607700391881</v>
+        <v>0.3527114676984442</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>1244.13</v>
+        <v>1632.93</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-33.7</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1244.13</v>
+        <v>1632.93</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>1000</v>
@@ -2809,7 +2809,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>20529.03</v>
+        <v>20917.83</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>20277.11</v>
+        <v>20665.91</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>22822.9754117774</v>
+        <v>22434.1754117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.4704656569998151</v>
+        <v>0.4794865207935968</v>
       </c>
     </row>
     <row r="13">
@@ -3196,13 +3196,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>20529.03</v>
+        <v>20917.83</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>37674.43623249458</v>
+        <v>37285.63623249458</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3527114676984442</v>
+        <v>0.3593914822262205</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1128.6</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>1283.09</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>549.5</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -2011,44 +2011,44 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
+          <t>1 de 24</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>2 de 24</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr">
-        <is>
-          <t>1 de 24</t>
-        </is>
-      </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="K26" s="4" t="inlineStr">
-        <is>
-          <t>0 de 24</t>
-        </is>
-      </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
           <t>2 de 24</t>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>6 de 24</t>
+          <t>7 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>2411.69</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1150</v>
@@ -2387,7 +2387,7 @@
         <v>366.34</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>549.5</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>8424.639999999999</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>20917.83</v>
+        <v>23879.02</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2837,8 +2837,8 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -2913,13 +2913,13 @@
         <v>7475.4083879616</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>549.5</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7475.4083879616</v>
+        <v>6925.9083879616</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>0.07350768967818734</v>
       </c>
     </row>
     <row r="4">
@@ -2985,13 +2985,13 @@
         <v>907.166108615601</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>306.24</v>
+        <v>1434.84</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>600.926108615601</v>
+        <v>-527.6738913843989</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.3375787489099915</v>
+        <v>1.581672845108451</v>
       </c>
     </row>
     <row r="7">
@@ -3129,13 +3129,13 @@
         <v>43100.0854117774</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>20665.91</v>
+        <v>21949</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>22434.1754117774</v>
+        <v>21151.0854117774</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.4794865207935968</v>
+        <v>0.5092565314035847</v>
       </c>
     </row>
     <row r="13">
@@ -3196,13 +3196,13 @@
         <v>58203.46623249458</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>20917.83</v>
+        <v>23879.02</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>37285.63623249458</v>
+        <v>34324.44623249459</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.3593914822262205</v>
+        <v>0.410268005424538</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-445.7</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-127.56</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>-2945.96</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>306.24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>506.88</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>758.13</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1128.6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>1283.09</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>549.5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>-3858.62</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>-130.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>17655.41</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>829.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3252.41</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>1632.93</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-347.92</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3690.09</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>2 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>2 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>7 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2107,9 +2107,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2126,22 +2126,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2189,16 +2189,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1317.8</v>
+        <v>6836.54</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6836.54</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>-3519.22</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-3519.22</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>1500</v>
@@ -2216,16 +2216,16 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>777.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>306.24</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>306.24</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>300</v>
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>366.83</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>366.83</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>25364.28</v>
+        <v>2654.94</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2654.94</v>
+        <v>4392.44</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4392.44</v>
+        <v>1265.01</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1265.01</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2324,16 +2324,16 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2261.64</v>
+        <v>4423.73</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4423.73</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>2411.69</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2411.69</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1150</v>
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-22.68</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>2161.81</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2161.81</v>
+        <v>142.56</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>2000</v>
@@ -2378,16 +2378,16 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>851.4299999999999</v>
+        <v>4229.93</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4229.93</v>
+        <v>366.34</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>366.34</v>
+        <v>549.5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>549.5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>5087.14</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5087.14</v>
+        <v>253.44</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>253.44</v>
+        <v>-3989.12</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-3989.12</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1500</v>
@@ -2432,16 +2432,16 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>11.52</v>
+        <v>12246.22</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>12246.22</v>
+        <v>1090.97</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1090.97</v>
+        <v>17655.41</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>17655.41</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>7529.26</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7529.26</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
@@ -2546,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>829.4400000000001</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>829.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>220.5</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>220.5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>3252.41</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3252.41</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>0</v>
@@ -2675,16 +2675,16 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>33.7</v>
+        <v>-33.7</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-33.7</v>
+        <v>1632.93</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1632.93</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>1000</v>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>4321.33</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>274.75</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>274.75</v>
+        <v>-347.92</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-347.92</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2783,16 +2783,16 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>4798.25</v>
+        <v>16408.39</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>16408.39</v>
+        <v>-81.41</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-81.41</v>
+        <v>3690.09</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3690.09</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20000</v>
@@ -2800,16 +2800,16 @@
     </row>
     <row r="26">
       <c r="C26" s="6" t="n">
-        <v>39681.38</v>
+        <v>60037.18</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>60037.18</v>
+        <v>8424.639999999999</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>8424.639999999999</v>
+        <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23879.02</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -2826,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2837,9 +2837,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2913,13 +2913,13 @@
         <v>7475.4083879616</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>549.5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6925.9083879616</v>
+        <v>7475.4083879616</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.07350768967818734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2937,13 +2937,13 @@
         <v>485.098641648355</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-445.7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>930.798641648355</v>
+        <v>485.098641648355</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-0.9187822057912196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2961,13 +2961,13 @@
         <v>150</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-127.56</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>277.56</v>
+        <v>150</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.8504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2985,13 +2985,13 @@
         <v>907.166108615601</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1434.84</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-527.6738913843989</v>
+        <v>907.166108615601</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1.581672845108451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-130.5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>130.5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         <v>2922.22458185274</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>649.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2272.78458185274</v>
+        <v>2922.22458185274</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.22224164563979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3126,16 +3126,16 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43100.0854117774</v>
+        <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>21949</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>21151.0854117774</v>
+        <v>27954.98</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.5092565314035847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3163,46 +3163,22 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RIOS CARRION ANGEL BENIGNO</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SAL SOLUBLE</t>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>854.979720622497</v>
+        <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>854.979720622497</v>
+        <v>42203.38110009469</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>58203.46623249458</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>23879.02</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>34324.44623249459</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>0.410268005424538</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>195.64</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>0 de 24</t>
+          <t>1 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>-347.92</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>195.64</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0</v>
+        <v>195.64</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2837,9 +2837,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>195.64</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>27954.98</v>
+        <v>27759.34</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0</v>
+        <v>0.006998395276977483</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>195.64</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>42203.38110009469</v>
+        <v>42007.74110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0</v>
+        <v>0.004635647545299659</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>-1392.03</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2387,7 +2387,7 @@
         <v>549.5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>-1392.03</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>195.64</v>
+        <v>-1196.39</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2837,7 +2837,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3105,13 +3105,13 @@
         <v>2922.22458185274</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>-1392.03</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2922.22458185274</v>
+        <v>4314.25458185274</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0</v>
+        <v>-0.4763596913955975</v>
       </c>
     </row>
     <row r="12">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>195.64</v>
+        <v>-1196.39</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>42007.74110009469</v>
+        <v>43399.77110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.004635647545299659</v>
+        <v>-0.02834820265140595</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0</v>
+        <v>6325.86</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>2 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2792,7 +2792,7 @@
         <v>3690.09</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0</v>
+        <v>6325.86</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-1196.39</v>
+        <v>5129.469999999999</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2839,7 +2839,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>195.64</v>
+        <v>6521.5</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>27759.34</v>
+        <v>21433.48</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.006998395276977483</v>
+        <v>0.2332858045328596</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1196.39</v>
+        <v>5129.47</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>43399.77110009469</v>
+        <v>37073.91110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.02834820265140595</v>
+        <v>0.1215416837772861</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>626.6900000000001</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>2 de 24</t>
+          <t>3 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2441,7 +2441,7 @@
         <v>17655.41</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>626.6900000000001</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5129.469999999999</v>
+        <v>5756.16</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6521.5</v>
+        <v>7148.19</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>21433.48</v>
+        <v>20806.79</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.2332858045328596</v>
+        <v>0.255703634915854</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5129.47</v>
+        <v>5756.16</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>37073.91110009469</v>
+        <v>36447.22110009468</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.1215416837772861</v>
+        <v>0.1363909679735846</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>626.6900000000001</v>
+        <v>4543.49</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>17655.41</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>626.6900000000001</v>
+        <v>4543.49</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5756.16</v>
+        <v>9672.959999999999</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7148.19</v>
+        <v>11064.99</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>20806.79</v>
+        <v>16889.99</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.255703634915854</v>
+        <v>0.3958146276620481</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5756.16</v>
+        <v>9672.959999999999</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>36447.22110009468</v>
+        <v>32530.42110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.1363909679735846</v>
+        <v>0.2291986980156502</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>195.64</v>
+        <v>5872.12</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>-347.92</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>195.64</v>
+        <v>5872.12</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9672.959999999999</v>
+        <v>15349.44</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>11064.99</v>
+        <v>16741.47</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>16889.99</v>
+        <v>11213.51</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.3958146276620481</v>
+        <v>0.5988725443552455</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>9672.959999999999</v>
+        <v>15349.44</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>32530.42110009469</v>
+        <v>26853.94110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.2291986980156502</v>
+        <v>0.3637016655986731</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>1612.02</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5872.12</v>
+        <v>10113.13</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>0 de 24</t>
+          <t>1 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>-347.92</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5872.12</v>
+        <v>11725.15</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>15349.44</v>
+        <v>21202.47</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3105,13 +3105,13 @@
         <v>2922.22458185274</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-1392.03</v>
+        <v>219.99</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>4314.25458185274</v>
+        <v>2702.23458185274</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>-0.4763596913955975</v>
+        <v>0.07528168826111326</v>
       </c>
     </row>
     <row r="12">
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>16741.47</v>
+        <v>20982.48</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>11213.51</v>
+        <v>6972.5</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.5988725443552455</v>
+        <v>0.7505811129179846</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>15349.44</v>
+        <v>21202.47</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>26853.94110009469</v>
+        <v>21000.91110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.3637016655986731</v>
+        <v>0.5023879473000904</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4543.49</v>
+        <v>6935.82</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>17655.41</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4543.49</v>
+        <v>6935.82</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21202.47</v>
+        <v>23594.8</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2838,7 +2838,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>20982.48</v>
+        <v>23374.81</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6972.5</v>
+        <v>4580.169999999998</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.7505811129179846</v>
+        <v>0.8361590671858825</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>21202.47</v>
+        <v>23594.8</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>21000.91110009469</v>
+        <v>18608.58110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.5023879473000904</v>
+        <v>0.5590736899500942</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>23374.81</v>
+        <v>22595.97</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>4580.169999999998</v>
+        <v>5359.009999999998</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8361590671858825</v>
+        <v>0.8082985571801519</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>23594.8</v>
+        <v>22815.96</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>18608.58110009469</v>
+        <v>19387.42110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.5590736899500942</v>
+        <v>0.5406192443654428</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -2985,13 +2985,13 @@
         <v>907.166108615601</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>-169.19</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>907.166108615601</v>
+        <v>1076.356108615601</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0</v>
+        <v>-0.1865038810347487</v>
       </c>
     </row>
     <row r="7">
@@ -3081,13 +3081,13 @@
         <v>388.107983534392</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>-213.19</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>388.107983534392</v>
+        <v>601.297983534392</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0</v>
+        <v>-0.5493058866208771</v>
       </c>
     </row>
     <row r="11">
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>22595.97</v>
+        <v>22586.98</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5359.009999999998</v>
+        <v>5368</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8082985571801519</v>
+        <v>0.8079769686832186</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>22815.96</v>
+        <v>22424.59</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>19387.42110009469</v>
+        <v>19778.79110009468</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.5406192443654428</v>
+        <v>0.5313458167442818</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1805,7 +1805,7 @@
         <v>1612.02</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>10113.13</v>
+        <v>9981.23</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>-347.92</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>11725.15</v>
+        <v>11593.25</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23594.8</v>
+        <v>23462.9</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>22586.98</v>
+        <v>22455.08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5368</v>
+        <v>5499.899999999998</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8079769686832186</v>
+        <v>0.8032586680441196</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>22424.59</v>
+        <v>22292.69</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>19778.79110009468</v>
+        <v>19910.69110009468</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.5313458167442818</v>
+        <v>0.5282204747322955</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -2792,7 +2792,7 @@
         <v>3690.09</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6325.86</v>
+        <v>6348.54</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23462.9</v>
+        <v>23485.58</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0</v>
+        <v>811.8</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>0</v>
+        <v>550.63</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>160.38</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0</v>
+        <v>550.63</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
@@ -2031,47 +2031,47 @@
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
+          <t>1 de 24</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="K26" s="4" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>1 de 24</t>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>4 de 24</t>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="L26" s="4" t="inlineStr">
-        <is>
-          <t>1 de 24</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="inlineStr">
-        <is>
-          <t>3 de 24</t>
-        </is>
-      </c>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="O26" s="4" t="inlineStr">
-        <is>
-          <t>0 de 24</t>
-        </is>
-      </c>
       <c r="P26" s="4" t="inlineStr">
         <is>
-          <t>0 de 24</t>
+          <t>2 de 24</t>
         </is>
       </c>
       <c r="Q26" s="4" t="inlineStr">
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
+        <v>1362.43</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>1000</v>
@@ -2684,7 +2684,7 @@
         <v>1632.93</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>711.01</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>1000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23485.58</v>
+        <v>25559.02</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2985,13 +2985,13 @@
         <v>907.166108615601</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-169.19</v>
+        <v>642.61</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1076.356108615601</v>
+        <v>264.556108615601</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.1865038810347487</v>
+        <v>0.708370819739582</v>
       </c>
     </row>
     <row r="7">
@@ -3033,13 +3033,13 @@
         <v>666.586827568148</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>1101.26</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>666.586827568148</v>
+        <v>-434.673172431852</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0</v>
+        <v>1.652087851807143</v>
       </c>
     </row>
     <row r="9">
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>22455.08</v>
+        <v>22615.46</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5499.899999999998</v>
+        <v>5339.52</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8032586680441196</v>
+        <v>0.8089957495945266</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>22292.69</v>
+        <v>24366.13</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>19910.69110009468</v>
+        <v>17837.25110009469</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.5282204747322955</v>
+        <v>0.5773501877067695</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>2093.72</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>663.55</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>4138.56</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>-1392.03</v>
+        <v>-297.88</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>3162.93</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -2011,52 +2011,52 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
+          <t>1 de 24</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>1 de 24</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr">
-        <is>
-          <t>1 de 24</t>
-        </is>
-      </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="K26" s="4" t="inlineStr">
-        <is>
-          <t>0 de 24</t>
-        </is>
-      </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>2 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>4 de 24</t>
+          <t>6 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2225,7 +2225,7 @@
         <v>306.24</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>2093.72</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>300</v>
@@ -2333,7 +2333,7 @@
         <v>2411.69</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>663.55</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1150</v>
@@ -2387,7 +2387,7 @@
         <v>549.5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1392.03</v>
+        <v>3840.68</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>3162.93</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>1200</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>25559.02</v>
+        <v>36711.93</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2913,13 +2913,13 @@
         <v>7475.4083879616</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>4138.56</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7475.4083879616</v>
+        <v>3336.8483879616</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>0.5536232651402349</v>
       </c>
     </row>
     <row r="4">
@@ -3105,13 +3105,13 @@
         <v>2922.22458185274</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>219.99</v>
+        <v>4477.07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2702.23458185274</v>
+        <v>-1554.84541814726</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.07528168826111326</v>
+        <v>1.532075949193974</v>
       </c>
     </row>
     <row r="12">
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>22615.46</v>
+        <v>25372.73</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5339.52</v>
+        <v>2582.25</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8089957495945266</v>
+        <v>0.9076282651606261</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>24366.13</v>
+        <v>35519.04</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>17837.25110009469</v>
+        <v>6684.341100094684</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.5773501877067695</v>
+        <v>0.841615981329996</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>122.22</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0</v>
+        <v>213.3</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>2093.72</v>
+        <v>2114.46</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>75.53</v>
       </c>
       <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>23.37</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>-297.88</v>
+        <v>82.28</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>160.38</v>
+        <v>291.92</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>1612.02</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>9981.23</v>
+        <v>11501.83</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2026,52 +2026,52 @@
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
+          <t>1 de 24</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>2 de 24</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>0 de 24</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>3 de 24</t>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>6 de 24</t>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>1 de 24</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>0 de 24</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>0 de 24</t>
-        </is>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
-        <is>
-          <t>0 de 24</t>
-        </is>
-      </c>
-      <c r="L26" s="4" t="inlineStr">
-        <is>
-          <t>2 de 24</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="inlineStr">
-        <is>
-          <t>6 de 24</t>
-        </is>
-      </c>
-      <c r="N26" s="4" t="inlineStr">
-        <is>
-          <t>0 de 24</t>
-        </is>
-      </c>
-      <c r="O26" s="4" t="inlineStr">
-        <is>
-          <t>0 de 24</t>
-        </is>
-      </c>
       <c r="P26" s="4" t="inlineStr">
         <is>
-          <t>2 de 24</t>
+          <t>3 de 24</t>
         </is>
       </c>
       <c r="Q26" s="4" t="inlineStr">
@@ -2225,7 +2225,7 @@
         <v>306.24</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2093.72</v>
+        <v>2548.88</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>300</v>
@@ -2387,7 +2387,7 @@
         <v>549.5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3840.68</v>
+        <v>4220.84</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>1632.93</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>711.01</v>
+        <v>842.55</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>1000</v>
@@ -2711,7 +2711,7 @@
         <v>-347.92</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>11593.25</v>
+        <v>13113.85</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>36711.93</v>
+        <v>39199.39</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2838,7 +2838,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -2961,13 +2961,13 @@
         <v>150</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>122.22</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>150</v>
+        <v>27.78</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0</v>
+        <v>0.8148</v>
       </c>
     </row>
     <row r="6">
@@ -2985,13 +2985,13 @@
         <v>907.166108615601</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>642.61</v>
+        <v>855.91</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>264.556108615601</v>
+        <v>51.25610861560108</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.708370819739582</v>
+        <v>0.9434986513177598</v>
       </c>
     </row>
     <row r="7">
@@ -3033,13 +3033,13 @@
         <v>666.586827568148</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1101.26</v>
+        <v>1124.63</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-434.673172431852</v>
+        <v>-458.0431724318521</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>1.652087851807143</v>
+        <v>1.687147050449365</v>
       </c>
     </row>
     <row r="9">
@@ -3105,13 +3105,13 @@
         <v>2922.22458185274</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4477.07</v>
+        <v>4857.23</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1554.84541814726</v>
+        <v>-1935.00541814726</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1.532075949193974</v>
+        <v>1.662168619812388</v>
       </c>
     </row>
     <row r="12">
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>25372.73</v>
+        <v>27045.61</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2582.25</v>
+        <v>909.369999999999</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.9076282651606261</v>
+        <v>0.9674701967234461</v>
       </c>
     </row>
     <row r="13">
@@ -3153,13 +3153,13 @@
         <v>148.058220160454</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>75.53</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>148.058220160454</v>
+        <v>72.528220160454</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0</v>
+        <v>0.510137160355882</v>
       </c>
     </row>
     <row r="14">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>35519.04</v>
+        <v>38006.5</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6684.341100094684</v>
+        <v>4196.881100094683</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.841615981329996</v>
+        <v>0.9005558087836409</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>291.92</v>
+        <v>1136.69</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>1612.02</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>11501.83</v>
+        <v>13066.99</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>1632.93</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>842.55</v>
+        <v>1687.32</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>1000</v>
@@ -2711,7 +2711,7 @@
         <v>-347.92</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>13113.85</v>
+        <v>14679.01</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>23879.02</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>39199.39</v>
+        <v>41609.32</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>27954.98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>27045.61</v>
+        <v>29455.54</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>909.369999999999</v>
+        <v>-1500.560000000001</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.9674701967234461</v>
+        <v>1.053677734700579</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>42203.38110009469</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>38006.5</v>
+        <v>40416.43</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4196.881100094683</v>
+        <v>1786.951100094683</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.9005558087836409</v>
+        <v>0.9576585796323632</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>122.22</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>213.3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>2114.46</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>75.53</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>23.37</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>811.8</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>550.63</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>663.55</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4138.56</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>82.28</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6935.82</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3162.93</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>1136.69</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>550.63</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1612.02</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>13066.99</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>6325.86</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>2 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>3 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>6 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="O26" s="4" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="P26" s="4" t="inlineStr">
         <is>
-          <t>3 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="Q26" s="4" t="inlineStr">
@@ -2106,10 +2106,10 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2126,22 +2126,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>6836.54</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>-3519.22</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-3519.22</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>306.24</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>306.24</v>
+        <v>2548.88</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2548.88</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>300</v>
@@ -2243,16 +2243,16 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>366.83</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>1362.43</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1362.43</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>1000</v>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>2654.94</v>
+        <v>4392.44</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4392.44</v>
+        <v>1265.01</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1265.01</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4423.73</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>2411.69</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2411.69</v>
+        <v>663.55</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>663.55</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1150</v>
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>2161.81</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2161.81</v>
+        <v>142.56</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -2378,16 +2378,16 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4229.93</v>
+        <v>366.34</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>366.34</v>
+        <v>549.5</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>549.5</v>
+        <v>4220.84</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4220.84</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>5087.14</v>
+        <v>253.44</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>253.44</v>
+        <v>-3989.12</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-3989.12</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>12246.22</v>
+        <v>1090.97</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1090.97</v>
+        <v>17655.41</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>17655.41</v>
+        <v>6935.82</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6935.82</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7529.26</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -2543,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>829.4400000000001</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>829.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>220.5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>3162.93</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3162.93</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>1200</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>3252.41</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>3252.41</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>0</v>
@@ -2675,16 +2675,16 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>33.7</v>
+        <v>-33.7</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-33.7</v>
+        <v>1632.93</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1632.93</v>
+        <v>1687.32</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1687.32</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>1000</v>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>274.75</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>274.75</v>
+        <v>-347.92</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-347.92</v>
+        <v>14679.01</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>14679.01</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2783,16 +2783,16 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>16408.39</v>
+        <v>-81.41</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-81.41</v>
+        <v>3690.09</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>3690.09</v>
+        <v>6348.54</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6348.54</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20000</v>
@@ -2800,16 +2800,16 @@
     </row>
     <row r="26">
       <c r="C26" s="6" t="n">
-        <v>60037.18</v>
+        <v>8424.639999999999</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8424.639999999999</v>
+        <v>23879.02</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>23879.02</v>
+        <v>41609.32</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>41609.32</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>443.44</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>317.92</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>0 de 24</t>
+          <t>1 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>0 de 24</t>
+          <t>1 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>761.36</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2809,7 +2809,7 @@
         <v>41609.32</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0</v>
+        <v>761.36</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -2837,9 +2837,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2886,13 +2886,13 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>440.717086537713</v>
+        <v>129.6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>440.717086537713</v>
+        <v>129.6</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>7475.4083879616</v>
+        <v>2344.03</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4138.56</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3336.8483879616</v>
+        <v>2344.03</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.5536232651402349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>485.098641648355</v>
+        <v>207.39</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>485.098641648355</v>
+        <v>207.39</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>150</v>
+        <v>86.41</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>122.22</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>27.78</v>
+        <v>86.41</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.8148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2982,16 +2982,16 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>907.166108615601</v>
+        <v>855.91</v>
       </c>
       <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>855.91</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>51.25610861560108</v>
-      </c>
       <c r="F6" s="3" t="n">
-        <v>0.9434986513177598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>665.033262215681</v>
+        <v>383</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>665.033262215681</v>
+        <v>383</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
@@ -3030,16 +3030,16 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>666.586827568148</v>
+        <v>415</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1124.63</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-458.0431724318521</v>
+        <v>415</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>1.687147050449365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3081,13 +3081,13 @@
         <v>388.107983534392</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-213.19</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>601.297983534392</v>
+        <v>388.107983534392</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-0.5493058866208771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3102,16 +3102,16 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2922.22458185274</v>
+        <v>902.88</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4857.23</v>
+        <v>443.44</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1935.00541814726</v>
+        <v>459.44</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1.662168619812388</v>
+        <v>0.4911394648236754</v>
       </c>
     </row>
     <row r="12">
@@ -3126,16 +3126,16 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>27954.98</v>
+        <v>34701</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>29455.54</v>
+        <v>317.92</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1500.560000000001</v>
+        <v>34383.08</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1.053677734700579</v>
+        <v>0.009161695628368058</v>
       </c>
     </row>
     <row r="13">
@@ -3150,16 +3150,16 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>148.058220160454</v>
+        <v>364.412605947529</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>75.53</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>72.528220160454</v>
+        <v>364.412605947529</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.510137160355882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3169,16 +3169,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>42203.38110009469</v>
+        <v>40777.74058948192</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>40416.43</v>
+        <v>761.36</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1786.951100094683</v>
+        <v>40016.38058948192</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.9576585796323632</v>
+        <v>0.01867097070592437</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>1653.75</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0</v>
+        <v>3053.72</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>3 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2225,7 +2225,7 @@
         <v>2548.88</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1653.75</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>300</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>3053.72</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>41609.32</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>761.36</v>
+        <v>5468.83</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2837,9 +2837,9 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3129,13 +3129,13 @@
         <v>34701</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>317.92</v>
+        <v>5025.39</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>34383.08</v>
+        <v>29675.61</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.009161695628368058</v>
+        <v>0.1448197458286505</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>40777.74058948192</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>761.36</v>
+        <v>5468.83</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>40016.38058948192</v>
+        <v>35308.91058948192</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.01867097070592437</v>
+        <v>0.1341131195829573</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3053.72</v>
+        <v>3080.12</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3053.72</v>
+        <v>3080.12</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>41609.32</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5468.83</v>
+        <v>5495.23</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>34701</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5025.39</v>
+        <v>5051.79</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>29675.61</v>
+        <v>29649.21</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.1448197458286505</v>
+        <v>0.1455805308204375</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>40777.74058948192</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5468.83</v>
+        <v>5495.23</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>35308.91058948192</v>
+        <v>35282.51058948192</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.1341131195829573</v>
+        <v>0.1347605316175223</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0</v>
+        <v>23307.46</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>3 de 24</t>
+          <t>4 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2792,7 +2792,7 @@
         <v>6348.54</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0</v>
+        <v>23307.46</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20000</v>
@@ -2809,7 +2809,7 @@
         <v>41609.32</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5495.23</v>
+        <v>28802.69</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2837,7 +2837,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3129,13 +3129,13 @@
         <v>34701</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5051.79</v>
+        <v>28359.25</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>29649.21</v>
+        <v>6341.75</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.1455805308204375</v>
+        <v>0.8172459006945045</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>40777.74058948192</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5495.23</v>
+        <v>28802.69</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>35282.51058948192</v>
+        <v>11975.05058948192</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.1347605316175223</v>
+        <v>0.7063336414335146</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>443.44</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>317.92</v>
+        <v>415.74</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>5890.54</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>4 de 24</t>
+          <t>5 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>761.36</v>
+        <v>859.1799999999999</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2441,7 +2441,7 @@
         <v>6935.82</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>5890.54</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2809,7 +2809,7 @@
         <v>41609.32</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28802.69</v>
+        <v>34791.05</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -2838,7 +2838,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -3129,13 +3129,13 @@
         <v>34701</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>28359.25</v>
+        <v>34347.61</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6341.75</v>
+        <v>353.3899999999994</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8172459006945045</v>
+        <v>0.9898161436269848</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>40777.74058948192</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>28802.69</v>
+        <v>34791.05</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>11975.05058948192</v>
+        <v>5986.69058948192</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.7063336414335146</v>
+        <v>0.8531872903466822</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>443.44</v>
+        <v>739.0700000000001</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>415.74</v>
+        <v>21624.44</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>859.1799999999999</v>
+        <v>22363.51</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2809,7 +2809,7 @@
         <v>41609.32</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>34791.05</v>
+        <v>56295.38</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3105,13 +3105,13 @@
         <v>902.88</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>443.44</v>
+        <v>739.0700000000001</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>459.44</v>
+        <v>163.8099999999999</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.4911394648236754</v>
+        <v>0.8185694665957824</v>
       </c>
     </row>
     <row r="12">
@@ -3129,13 +3129,13 @@
         <v>34701</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>34347.61</v>
+        <v>55556.31</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>353.3899999999994</v>
+        <v>-20855.31</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.9898161436269848</v>
+        <v>1.60100025935852</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>40777.74058948192</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>34791.05</v>
+        <v>56295.38</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>5986.69058948192</v>
+        <v>-15517.63941051808</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.8531872903466822</v>
+        <v>1.380541912970054</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -845,7 +845,7 @@
         <v>739.0700000000001</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>21624.44</v>
+        <v>24190.45</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>22363.51</v>
+        <v>24929.52</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2809,7 +2809,7 @@
         <v>41609.32</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>56295.38</v>
+        <v>58861.39</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>
@@ -3129,13 +3129,13 @@
         <v>34701</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>55556.31</v>
+        <v>58122.32</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-20855.31</v>
+        <v>-23421.32</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1.60100025935852</v>
+        <v>1.674946543327282</v>
       </c>
     </row>
     <row r="13">
@@ -3172,13 +3172,13 @@
         <v>40777.74058948192</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>56295.38</v>
+        <v>58861.39</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-15517.63941051808</v>
+        <v>-18083.64941051808</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>1.380541912970054</v>
+        <v>1.443468646106953</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1653.75</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>739.0700000000001</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>24190.45</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5890.54</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3080.12</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>23307.46</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>5 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2106,9 +2106,9 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
@@ -2126,22 +2126,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>noviembre</t>
+          <t>diciembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>-3519.22</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3519.22</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>306.24</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>306.24</v>
+        <v>2548.88</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2548.88</v>
+        <v>1653.75</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1653.75</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>300</v>
@@ -2246,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>1362.43</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1362.43</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4392.44</v>
+        <v>1265.01</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1265.01</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>24929.52</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>24929.52</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8000</v>
@@ -2324,13 +2324,13 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>2411.69</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2411.69</v>
+        <v>663.55</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>663.55</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2161.81</v>
+        <v>142.56</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>366.34</v>
+        <v>549.5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>549.5</v>
+        <v>4220.84</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4220.84</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>253.44</v>
+        <v>-3989.12</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-3989.12</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1090.97</v>
+        <v>17655.41</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>17655.41</v>
+        <v>6935.82</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6935.82</v>
+        <v>5890.54</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5890.54</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>6000</v>
@@ -2492,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>3080.12</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3080.12</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>0</v>
@@ -2540,10 +2540,10 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>829.4400000000001</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>829.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>3162.93</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>3162.93</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>3252.41</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3252.41</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -2675,13 +2675,13 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-33.7</v>
+        <v>1632.93</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1632.93</v>
+        <v>1687.32</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1687.32</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>0</v>
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>274.75</v>
+        <v>-347.92</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-347.92</v>
+        <v>14679.01</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>14679.01</v>
+        <v>5686.14</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
@@ -2783,16 +2783,16 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-81.41</v>
+        <v>3690.09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>3690.09</v>
+        <v>6348.54</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>6348.54</v>
+        <v>23307.46</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>23307.46</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20000</v>
@@ -2800,16 +2800,16 @@
     </row>
     <row r="26">
       <c r="C26" s="6" t="n">
-        <v>8424.639999999999</v>
+        <v>23879.02</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>23879.02</v>
+        <v>41609.32</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>41609.32</v>
+        <v>64547.53</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>58861.39</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>-308.87</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>5686.14</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>-308.87</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>64547.53</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0</v>
+        <v>-308.87</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>89.56</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>-308.87</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>0 de 24</t>
+          <t>1 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>5686.14</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-308.87</v>
+        <v>-219.31</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>64547.53</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-308.87</v>
+        <v>-219.31</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1805,7 +1805,7 @@
         <v>89.56</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-308.87</v>
+        <v>-354.89</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>5686.14</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-219.31</v>
+        <v>-265.33</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2000</v>
@@ -2809,7 +2809,7 @@
         <v>64547.53</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-219.31</v>
+        <v>-265.33</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>48450</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6000</v>
+        <v>12870</v>
       </c>
     </row>
     <row r="13">
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22">
@@ -2714,7 +2714,7 @@
         <v>-265.33</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="26">
@@ -2812,7 +2812,7 @@
         <v>-265.33</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>48450</v>
+        <v>38870</v>
       </c>
     </row>
   </sheetData>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>89.56</v>
+        <v>232.12</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>-354.89</v>
@@ -2711,7 +2711,7 @@
         <v>5686.14</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-265.33</v>
+        <v>-122.77</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>1000</v>
@@ -2809,7 +2809,7 @@
         <v>64547.53</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-265.33</v>
+        <v>-122.77</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>38870</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>3055.1</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>0 de 24</t>
+          <t>1 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2441,7 +2441,7 @@
         <v>5890.54</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>3055.1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>12870</v>
@@ -2809,7 +2809,7 @@
         <v>64547.53</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-122.77</v>
+        <v>2932.33</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>38870</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3055.1</v>
+        <v>18531.43</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>5890.54</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3055.1</v>
+        <v>18531.43</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>12870</v>
@@ -2809,7 +2809,7 @@
         <v>64547.53</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2932.33</v>
+        <v>18408.66</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>38870</v>

--- a/data/RIOS CARRION ANGEL BENIGNO.xlsx
+++ b/data/RIOS CARRION ANGEL BENIGNO.xlsx
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>18531.43</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>232.12</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>-354.89</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>1 de 24</t>
+          <t>0 de 24</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2106,10 +2106,10 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2126,22 +2126,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>septiembre</t>
+          <t>octubre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>octubre</t>
+          <t>noviembre</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>noviembre</t>
+          <t>diciembre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>diciembre</t>
+          <t>enero</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-3519.22</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>306.24</v>
+        <v>2548.88</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2548.88</v>
+        <v>1653.75</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1653.75</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>1362.43</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1362.43</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1265.01</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>24929.52</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>24929.52</v>
+        <v>10645.56</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2411.69</v>
+        <v>663.55</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>663.55</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>549.5</v>
+        <v>4220.84</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4220.84</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-3989.12</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>17655.41</v>
+        <v>6935.82</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6935.82</v>
+        <v>5890.54</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5890.54</v>
+        <v>18531.43</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>18531.43</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>12870</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>3080.12</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3080.12</v>
+        <v>793.76</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>829.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>3162.93</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3162.93</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>3252.41</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1632.93</v>
+        <v>1687.32</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1687.32</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-347.92</v>
+        <v>14679.01</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>14679.01</v>
+        <v>5686.14</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>5686.14</v>
+        <v>3757.05</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-122.77</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>1000</v>
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3690.09</v>
+        <v>6348.54</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6348.54</v>
+        <v>23307.46</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>23307.46</v>
+        <v>16458.65</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
     </row>
     <row r="26">
       <c r="C26" s="6" t="n">
-        <v>23879.02</v>
+        <v>41609.32</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>41609.32</v>
+        <v>64547.53</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>64547.53</v>
+        <v>50186.45</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18408.66</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>38870</v>
